--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -451,155 +451,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>000916</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>93.14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>003378</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>泰康策略优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>26.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>009312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>新疆前海联合价值优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>005671</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007041</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003378</t>
+          <t>009313</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康策略优选灵活配置混合</t>
+          <t>新疆前海联合价值优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>519678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>银河消费驱动混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005671</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新疆前海联合研究优选灵活配置混合A</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005672</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新疆前海联合研究优选灵活配置混合C</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009312</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新疆前海联合价值优选混合A</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009313</t>
+          <t>005672</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新疆前海联合价值优选混合C</t>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>泰康景泰回报混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519678</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银河消费驱动混合</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1378,26 +1698,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1406,26 +1730,30 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.92</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1706,7 +1707,6 @@
           <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>91.39</t>
@@ -1738,7 +1738,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -1754,6 +1753,518 @@
       </c>
       <c r="H29" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2270,4 +2271,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.7211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3277,4 +3278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3286,7 +3287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,17 +3298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3317,14 +3338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.93</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8167</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3333,14 +3376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3349,14 +3414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.38</v>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3365,13 +3452,2887 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6231,7 +6232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6242,17 +6243,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6262,14 +6283,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.79</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6278,14 +6321,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.93</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6294,14 +6359,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6310,14 +6397,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.38</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6326,13 +6435,1837 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5319</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4262</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8148,7 +8149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8159,17 +8160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8179,14 +8200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.17</v>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8195,14 +8238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.79</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8211,14 +8276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.93</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8227,14 +8314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.28</v>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -8243,14 +8352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.38</v>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8259,13 +8390,2159 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2476</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>11.72</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>17.17</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>15.79</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>17.93</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -600,6 +617,2338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>609.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4834</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2859,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4775,7 +7124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7719,7 +10068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8725,7 +11074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9237,7 +11586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10343,7 +12692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/603198-迎驾贡酒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>20.32</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>11.72</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>17.17</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>15.79</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>17.93</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>1.28</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>3.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,238 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +842,3812 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010969</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏安阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016163</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家欣远混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013929</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015162</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银证券恒瑞9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016164</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家欣远混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015163</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012302</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012303</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>016796</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2948,7 +6979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5208,7 +9239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7124,7 +11155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10068,7 +14099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11074,7 +15105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11586,7 +15617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12690,212 +16721,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008928</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501089</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008929</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>